--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-640" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+  <si>
+    <t>local variables</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>if/then/else/fi</t>
+  </si>
+  <si>
+    <t>chanelling</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>pass keyboard signals</t>
+  </si>
+  <si>
+    <t>Total weight</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Weekly Goal</t>
+  </si>
+  <si>
+    <t>(Weight/Person)/week</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,25 +136,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,33 +546,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="9">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="9">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="9">
         <v>5</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="9">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <f>21</f>
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(E6+D6+C6+B6+A6)+6</f>
+        <v>36</v>
+      </c>
+      <c r="G6" s="7">
+        <f>ROUNDUP(F6/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <f>ROUNDUP(G6/4,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>local variables</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>(Weight/Person)/week</t>
+  </si>
+  <si>
+    <t>redirection</t>
   </si>
 </sst>
 </file>
@@ -179,8 +182,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -214,9 +221,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,7 +560,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -582,8 +593,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -595,9 +606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -631,7 +642,7 @@
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -643,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -657,12 +668,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8">
-        <f>4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
-        <f>0</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <f>0</f>
@@ -673,20 +682,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="8">
-        <f>21</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5">
-        <f>(E6+D6+C6+B6+A6)+6</f>
-        <v>36</v>
+        <f>(E6+D6+C6+B6+A6)+7</f>
+        <v>45</v>
       </c>
       <c r="G6" s="7">
         <f>ROUNDUP(F6/4,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H6" s="6">
-        <f>ROUNDUP(G6/4,0)</f>
-        <v>3</v>
+        <f>ROUNDUP(G6/3,0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>local variables</t>
   </si>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,8 +181,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -190,8 +203,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,14 +245,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,22 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
+    <row r="1" spans="1:9" ht="16" thickBot="1">
       <c r="A1" s="9">
         <v>1</v>
       </c>
@@ -588,13 +635,16 @@
       <c r="E1" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -605,8 +655,11 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -620,10 +673,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -639,8 +695,11 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -653,25 +712,28 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
         <f>0</f>
@@ -682,64 +744,67 @@
         <v>5</v>
       </c>
       <c r="E6" s="8">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5">
-        <f>(E6+D6+C6+B6+A6)+7</f>
-        <v>45</v>
-      </c>
-      <c r="G6" s="7">
-        <f>ROUNDUP(F6/4,0)</f>
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <f>ROUNDUP(G6/3,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
+        <f>(E6+D6+C6+B6+A6+F6)+9</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="7">
+        <f>ROUNDUP(G6/4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I6" s="6">
+        <f>ROUNDUP(H6/3,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -30,9 +30,6 @@
     <t>if/then/else/fi</t>
   </si>
   <si>
-    <t>chanelling</t>
-  </si>
-  <si>
     <t>exit</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>redirection</t>
+  </si>
+  <si>
+    <t>piping</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,6 +182,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -195,7 +206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,8 +226,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,7 +264,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,7 +280,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -265,6 +290,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -274,6 +303,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,11 +639,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -635,7 +669,7 @@
       <c r="E1" s="9">
         <v>7</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="13">
         <v>11</v>
       </c>
     </row>
@@ -643,89 +677,89 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -733,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <f>0</f>
@@ -744,18 +778,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="8">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5">
-        <f>(E6+D6+C6+B6+A6+F6)+9</f>
-        <v>60</v>
+        <f>(E6+D6+C6+B6+A6+F6)+5</f>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
         <f>ROUNDUP(G6/4,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="6">
         <f>ROUNDUP(H6/3,0)</f>

--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +119,20 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,8 +248,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,9 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,8 +292,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -294,6 +313,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -307,6 +327,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,24 +657,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
       <c r="A1" s="9">
         <v>1</v>
       </c>
@@ -669,11 +690,11 @@
       <c r="E1" s="9">
         <v>7</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -693,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -706,14 +727,14 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -733,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1">
+    <row r="5" spans="1:6" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -746,23 +767,14 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -783,62 +795,65 @@
       <c r="F6" s="8">
         <v>33</v>
       </c>
-      <c r="G6" s="5">
-        <f>(E6+D6+C6+B6+A6+F6)+5</f>
-        <v>55</v>
-      </c>
-      <c r="H6" s="7">
-        <f>ROUNDUP(G6/4,0)</f>
-        <v>14</v>
-      </c>
-      <c r="I6" s="6">
-        <f>ROUNDUP(H6/3,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:6" ht="16" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="5">
+        <f>(E6+D6+C6+B6+A6+F6)+5</f>
+        <v>55</v>
+      </c>
+      <c r="C9" s="7">
+        <f>ROUNDUP(B9/3,0)</f>
+        <v>19</v>
+      </c>
+      <c r="D9" s="6">
+        <f>ROUNDUP(C9/3,0)</f>
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -846,6 +861,7 @@
       <c r="E13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/docs/relative_weights.xlsx
+++ b/docs/relative_weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13520" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>local variables</t>
   </si>
   <si>
-    <t>pwd</t>
-  </si>
-  <si>
     <t>if/then/else/fi</t>
   </si>
   <si>
     <t>exit</t>
   </si>
   <si>
-    <t>cd</t>
-  </si>
-  <si>
     <t>batch</t>
-  </si>
-  <si>
-    <t>pass keyboard signals</t>
   </si>
   <si>
     <t>Total weight</t>
@@ -220,8 +211,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,7 +294,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -314,6 +309,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -328,6 +325,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,7 +659,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -696,87 +695,87 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -786,8 +785,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f>5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <v>7</v>
@@ -806,13 +804,13 @@
     <row r="8" spans="1:6" ht="16" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -820,15 +818,15 @@
       <c r="A9" s="1"/>
       <c r="B9" s="5">
         <f>(E6+D6+C6+B6+A6+F6)+5</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7">
         <f>ROUNDUP(B9/3,0)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <f>ROUNDUP(C9/3,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1"/>
     </row>
